--- a/data/trans_camb/P1001-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.280117610125804</v>
+        <v>-5.351817694091404</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2901123931347723</v>
+        <v>-0.1150609047695277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.68775636559399</v>
+        <v>-12.66495022294106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.898873390704563</v>
+        <v>3.052898173169255</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.307217059645033</v>
+        <v>7.093115794404897</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.43187062565197</v>
+        <v>-13.37578710980187</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6428855164657016</v>
+        <v>0.2521868677858357</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.154608269824762</v>
+        <v>5.051956341851733</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-11.43145314460479</v>
+        <v>-11.52480865327327</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.358843866935082</v>
+        <v>4.712294696302634</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.29854040042971</v>
+        <v>11.67630460031395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.242058493161189</v>
+        <v>-4.422220725059589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.18776796646751</v>
+        <v>16.00841085201819</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.94662732401936</v>
+        <v>20.23207202379297</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.283052931535019</v>
+        <v>-4.730574270597851</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.780055444900221</v>
+        <v>8.465593093251101</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.33212069638691</v>
+        <v>14.05489680368111</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.463556138001406</v>
+        <v>-5.506102745700286</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4085323898618914</v>
+        <v>-0.4202384957518766</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01298885818125104</v>
+        <v>-0.03012589602668821</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9031972770595837</v>
+        <v>-0.9170231519426295</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1832595451027934</v>
+        <v>0.2052547127355087</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3960369021381682</v>
+        <v>0.4384779533392806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8384364312357909</v>
+        <v>-0.8296521780753089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04796888173540234</v>
+        <v>0.005876956775099574</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3705521224347148</v>
+        <v>0.3641402672596437</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8360582311146036</v>
+        <v>-0.8377098481439452</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7076187828804585</v>
+        <v>0.5963369898849594</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.676452408846923</v>
+        <v>1.504897259557807</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.5423471370361796</v>
+        <v>-0.5177599874340777</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.847545550386959</v>
+        <v>1.762087994608321</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.16392018988428</v>
+        <v>2.247250041142972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4714903772001228</v>
+        <v>-0.4963289112732739</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9527106272738001</v>
+        <v>0.8979210517275016</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.519445761554127</v>
+        <v>1.5066152267004</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.586854536409918</v>
+        <v>-0.6010176418524394</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.72930936313143</v>
+        <v>-4.051100386567883</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.232703112139182</v>
+        <v>-8.848764448389751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.943578772039187</v>
+        <v>-4.390515496497678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.059492470809825</v>
+        <v>-4.471580088214409</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.892153336777474</v>
+        <v>-9.885191949318394</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.844326815361303</v>
+        <v>-8.156712734343191</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.934280063784748</v>
+        <v>-3.02091881907036</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.250307873701919</v>
+        <v>-8.114277056736725</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.246713255894812</v>
+        <v>-5.238817501221465</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.431080356061098</v>
+        <v>3.71356500407873</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.627978299741922</v>
+        <v>-2.468646080147143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.222708076007723</v>
+        <v>3.181240705956438</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.058539405780324</v>
+        <v>4.745695354156164</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.366890592034107</v>
+        <v>-1.593990593261033</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.2085459749022487</v>
+        <v>-0.77141900873376</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.111944373364535</v>
+        <v>2.700177570051678</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.033420258650172</v>
+        <v>-3.066073231870944</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2945192998916358</v>
+        <v>0.23818295243304</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3817861275232572</v>
+        <v>-0.4120204343216139</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8167000411484883</v>
+        <v>-0.8088449850515798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.410034209460695</v>
+        <v>-0.4524330180881547</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2435838124895219</v>
+        <v>-0.2578210173813139</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5646498878754483</v>
+        <v>-0.5653631324953954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4548474566567355</v>
+        <v>-0.4722691163606333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2233117625638323</v>
+        <v>-0.2358247718500234</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6215388661452351</v>
+        <v>-0.617214576537226</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3925677324902655</v>
+        <v>-0.3884820325481109</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5575545313165816</v>
+        <v>0.5990378584024463</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3662371994620966</v>
+        <v>-0.3136870722356929</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5031358374179069</v>
+        <v>0.5478029300404329</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3971186041454646</v>
+        <v>0.3596013681325587</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.09588508459581639</v>
+        <v>-0.1061709011947553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008006359674890046</v>
+        <v>-0.0611368881878433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3056961559097077</v>
+        <v>0.2607358505721436</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2971287561100782</v>
+        <v>-0.2808698449397848</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03711891402260701</v>
+        <v>0.03133934764012081</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.2535097839717004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.120899442549979</v>
+        <v>3.120899442549981</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.203927941546528</v>
@@ -1083,7 +1083,7 @@
         <v>1.847059454529271</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.929844184507142</v>
+        <v>4.929844184507145</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.045017266428575</v>
@@ -1092,7 +1092,7 @@
         <v>0.8264043395034923</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.101411682865498</v>
+        <v>4.1014116828655</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.08364564014249319</v>
+        <v>-0.2998554843251685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.732359662174415</v>
+        <v>-2.646360747765292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2461447557955403</v>
+        <v>0.3647423200607373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.4768136554644</v>
+        <v>3.331246424807841</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.581034565259795</v>
+        <v>-1.276668211421705</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.869998027286973</v>
+        <v>1.678904011937546</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.515856087633082</v>
+        <v>2.705274841395601</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.14276927540735</v>
+        <v>-1.216823699694131</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.075706352781973</v>
+        <v>2.05694108779703</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.084937422287436</v>
+        <v>5.938463796640395</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.068030209831718</v>
+        <v>1.87656652299071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.055898615349381</v>
+        <v>6.068880121274885</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.75883043543434</v>
+        <v>11.3397691955558</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.980158833385107</v>
+        <v>5.010906050365492</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.785874139995953</v>
+        <v>8.241124718362286</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.604663539577103</v>
+        <v>7.836677561506431</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.707135670046005</v>
+        <v>2.846884929681986</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.205959769539263</v>
+        <v>6.475050149947157</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1065879428246549</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.312179144064707</v>
+        <v>1.312179144064708</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.947654963046106</v>
@@ -1188,7 +1188,7 @@
         <v>0.4993712517455964</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.332833361314557</v>
+        <v>1.332833361314558</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.651231482700874</v>
@@ -1197,7 +1197,7 @@
         <v>0.2704817031864776</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.342389874328206</v>
+        <v>1.342389874328207</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2039557963697644</v>
+        <v>-0.1616114089760967</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7317770153029497</v>
+        <v>-0.719765219972809</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01399363016127352</v>
+        <v>0.01993964630354391</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5619208508918888</v>
+        <v>0.4967023468662182</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.354101626054266</v>
+        <v>-0.3252797296519642</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2888748096186423</v>
+        <v>0.2929478264228471</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6227608884490867</v>
+        <v>0.5543161253152926</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3291970015319424</v>
+        <v>-0.3038820922725387</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4961815855368631</v>
+        <v>0.4204196707934374</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.342748893656391</v>
+        <v>6.3228079180704</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.893583626888936</v>
+        <v>1.74073627996736</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.01174844657374</v>
+        <v>5.801378849085292</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.834114776936119</v>
+        <v>4.761945525562954</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.046982515554417</v>
+        <v>2.085122050816782</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.401030009676616</v>
+        <v>3.819838994294793</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.747762738359736</v>
+        <v>3.490628044809378</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.327532116137095</v>
+        <v>1.433805146918274</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.031466726423791</v>
+        <v>2.940786377319859</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>13.04099858020638</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.845997737533087</v>
+        <v>3.845997737533088</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>8.362344637058673</v>
@@ -1306,7 +1306,7 @@
         <v>9.835953201963147</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.558927190126941</v>
+        <v>3.55892719012694</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2173909587370728</v>
+        <v>-0.1036430389595442</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.967543072189744</v>
+        <v>3.286322050476928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2457357433532177</v>
+        <v>0.1319193898203312</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.968924586591221</v>
+        <v>8.76945961007304</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.386635091781011</v>
+        <v>7.929202630252666</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.06889177026281222</v>
+        <v>-0.09899939211955862</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.573601931463743</v>
+        <v>5.664493882693746</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.613391630520827</v>
+        <v>6.766643503595539</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7849663787710021</v>
+        <v>1.088724197796846</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.492750848609976</v>
+        <v>6.016715130971372</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.00507773647141</v>
+        <v>9.97022139824424</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.717688746477321</v>
+        <v>6.445099629163586</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.94995871050879</v>
+        <v>18.31996634073045</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.96111339180374</v>
+        <v>18.0694181739664</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.022543401260807</v>
+        <v>8.125652306038971</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.29965647044635</v>
+        <v>11.36668205352751</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.81661415281686</v>
+        <v>13.01376849730881</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.468755208813732</v>
+        <v>6.396390472528379</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.698419286517942</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5008908400040015</v>
+        <v>0.5008908400040017</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.605439365220042</v>
@@ -1411,7 +1411,7 @@
         <v>1.888349159267372</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6832583512118239</v>
+        <v>0.6832583512118237</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1200120644229544</v>
+        <v>-0.1532186434611605</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.654862535620243</v>
+        <v>0.7137298523512191</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03750721809263623</v>
+        <v>-0.04682653879042819</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.8602679174788992</v>
+        <v>0.9019269126853193</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8129078179746375</v>
+        <v>0.7792963553570643</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02225675453168587</v>
+        <v>-0.04189951455704715</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8401054697553016</v>
+        <v>0.7935051203049546</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.9865812860032971</v>
+        <v>1.008060369602723</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1112879075523922</v>
+        <v>0.1547525186722186</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.595986321949831</v>
+        <v>3.792317264947252</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.862782836500387</v>
+        <v>6.812869600017678</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.067155774921203</v>
+        <v>4.496101905386747</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.112432852788567</v>
+        <v>3.215369794817834</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.094383855196934</v>
+        <v>2.989627015967089</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.353386233716259</v>
+        <v>1.449513540620645</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.750287032237352</v>
+        <v>2.768076482140026</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.071201807962896</v>
+        <v>3.175282084680183</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.562403593865737</v>
+        <v>1.543525473778259</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.4201306379248038</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.740968634764793</v>
+        <v>1.74096863476479</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.70259886594209</v>
@@ -1520,7 +1520,7 @@
         <v>-0.733458893988058</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.880552117027441</v>
+        <v>-0.8805521170274395</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.314043503924244</v>
+        <v>-5.819394959237294</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.079565010341846</v>
+        <v>-6.434556382494323</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.580097560763284</v>
+        <v>-7.867892064416007</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.468688562293621</v>
+        <v>4.814143079259141</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.798038614827363</v>
+        <v>-4.857604657503376</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.89191461073578</v>
+        <v>-3.20118862870573</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9549343240147075</v>
+        <v>0.9603989473465548</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.170111856599886</v>
+        <v>-4.136501396267732</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.828269580141564</v>
+        <v>-3.863775445842514</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.468949089034552</v>
+        <v>2.949096905450934</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.139411522025307</v>
+        <v>2.212087391598679</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.2570779119956446</v>
+        <v>-0.2898102969174476</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.7405615873603</v>
+        <v>17.0766826858595</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.668373100939964</v>
+        <v>5.27322014420897</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.10126400505964</v>
+        <v>5.976404325927845</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.553293259952847</v>
+        <v>8.683692649050922</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.31342187554759</v>
+        <v>2.523781773726891</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.879603894334665</v>
+        <v>1.866564942983262</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.05874152774011426</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2434175185576659</v>
+        <v>0.2434175185576656</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6845693094988791</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1067714816672181</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1281842172627009</v>
+        <v>-0.1281842172627006</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7015438866380969</v>
+        <v>-0.690240405333738</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7119870930367308</v>
+        <v>-0.7065647641983359</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8285023123431492</v>
+        <v>-0.8219709022064539</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3821222482654604</v>
+        <v>0.4136114390091913</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5058612807461639</v>
+        <v>-0.5023000193244912</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2726062316012672</v>
+        <v>-0.3112162495880436</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08840290511629142</v>
+        <v>0.09896906279704797</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.484899314315704</v>
+        <v>-0.4756214482196945</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4276455016153483</v>
+        <v>-0.4236750603318286</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6435792158935409</v>
+        <v>0.6985911376204349</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5260214795056098</v>
+        <v>0.5920463971871734</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.001105207869483298</v>
+        <v>0.07735895490383499</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.84558980113367</v>
+        <v>3.438654985789589</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.27596849240602</v>
+        <v>1.199410351415296</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.422180556102045</v>
+        <v>1.445020264480906</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.693906165661828</v>
+        <v>1.639745592608581</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4248396209305447</v>
+        <v>0.5170592224477947</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4109404068104552</v>
+        <v>0.4154621965287975</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>9.488281987322862</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.772353530358306</v>
+        <v>3.772353530358301</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.856216392301073</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.520163926742052</v>
+        <v>3.659790043047006</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.682852875852529</v>
+        <v>3.000726715701246</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.888673365437345</v>
+        <v>1.838564711126284</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.408780995036585</v>
+        <v>2.568964092818862</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.426055636660322</v>
+        <v>4.810985033936672</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.1117414409460313</v>
+        <v>0.4221855547049377</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>4.093939882522111</v>
+        <v>4.023627458147865</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.697481747065039</v>
+        <v>4.556942202784932</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.658683611901444</v>
+        <v>1.701655722291868</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.11059166332636</v>
+        <v>11.15018599320347</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.486229141504724</v>
+        <v>9.895237922172166</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.920243364042368</v>
+        <v>7.18974943822349</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.6582739813667</v>
+        <v>11.75967929158596</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>14.66302619511956</v>
+        <v>14.56930344801115</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.196882033711644</v>
+        <v>7.078638245719467</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.816086066800608</v>
+        <v>9.848225530720132</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.9775491503412</v>
+        <v>11.12277991718565</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.263821241227404</v>
+        <v>6.023341758290587</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>2.108977260424655</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8384877077260101</v>
+        <v>0.8384877077260089</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>2.33329223184996</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1.225007638189087</v>
+        <v>1.139720630689448</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.8695647598477358</v>
+        <v>0.893077745813564</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4840714195208625</v>
+        <v>0.5558636968935842</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.3382655776633222</v>
+        <v>0.3351036554577877</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.6326374194780017</v>
+        <v>0.6261411812802796</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.01227134608315804</v>
+        <v>0.02124049414410241</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9229946203792984</v>
+        <v>0.9502337798030619</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1.115950480645957</v>
+        <v>1.054072406692039</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2965689304086704</v>
+        <v>0.3712367420021443</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>25.32826518640325</v>
+        <v>21.61086933918829</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>24.97790690961397</v>
+        <v>19.864838310747</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>17.4965770570092</v>
+        <v>14.71994734538621</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4.341675648329909</v>
+        <v>4.408361865196014</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5.308841946766491</v>
+        <v>5.328128936804486</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.582327007225154</v>
+        <v>2.578211928770825</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5.035184716710246</v>
+        <v>4.932582647893208</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>5.945968196953761</v>
+        <v>5.902061254402199</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.097004143106941</v>
+        <v>3.125993232685255</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>1.656392281387868</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.869997863078693</v>
+        <v>3.869997863078698</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.128361255957179</v>
+        <v>-3.463507258881934</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.142480797990336</v>
+        <v>-1.832850487730641</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.2885521656584</v>
+        <v>-0.2733534587716639</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.756300541587724</v>
+        <v>-5.593926208713815</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.121408556039916</v>
+        <v>-1.206409120666574</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.484497800571805</v>
+        <v>1.508589188932023</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.752239907723911</v>
+        <v>-3.791188169223137</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.7473184242329376</v>
+        <v>-0.8333734610836681</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.660525887657636</v>
+        <v>1.616842321634131</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.721826468532263</v>
+        <v>1.735485926459253</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.589921895510161</v>
+        <v>3.706569805321702</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.866599993488357</v>
+        <v>5.688846505732354</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.5606027408977891</v>
+        <v>0.7010666909605859</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.649099051688744</v>
+        <v>6.044579454482151</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.393265315666444</v>
+        <v>8.593278270132137</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.5570535196840072</v>
+        <v>0.5226491539309682</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.792962190360446</v>
+        <v>3.94779793252906</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.39529570065361</v>
+        <v>6.03710402648109</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.2043270548694442</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4773900932763086</v>
+        <v>0.4773900932763092</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4560225935451083</v>
+        <v>-0.4911236766695717</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3205008287655552</v>
+        <v>-0.2693324767726454</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02922741084566242</v>
+        <v>-0.04231733941251693</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4728863870476311</v>
+        <v>-0.4588402868820678</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.09251710149112584</v>
+        <v>-0.1076870395953105</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1132874352475869</v>
+        <v>0.1216820304845762</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4083672026454072</v>
+        <v>-0.4046518648870052</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.08372615565840413</v>
+        <v>-0.09317313127592292</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1759007898390353</v>
+        <v>0.1632257097155742</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3966553008715565</v>
+        <v>0.4172952546232295</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7725949213411752</v>
+        <v>0.9336403565627147</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.373229555997414</v>
+        <v>1.350685871125931</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.06619250830995775</v>
+        <v>0.09326118944315644</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6452019508212655</v>
+        <v>0.6542969232047224</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.98035551664951</v>
+        <v>0.9503595055307157</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07944094107134236</v>
+        <v>0.07452809462567993</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.549808513488556</v>
+        <v>0.572828782596289</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8786344490454769</v>
+        <v>0.8566424878865885</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-4.082982358368574</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-2.3805786206937</v>
+        <v>-2.380578620693701</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>6.410524671724839</v>
@@ -2162,7 +2162,7 @@
         <v>-2.792547029779112</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.802417487377882</v>
+        <v>1.80241748737788</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.301414664229816</v>
+        <v>-2.093240686708491</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.575246117607578</v>
+        <v>-6.509669165339758</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.0724416880868</v>
+        <v>-5.015015365381354</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.071392442626227</v>
+        <v>2.910548346090368</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.627392561878698</v>
+        <v>-4.447684087661655</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.811851004101818</v>
+        <v>2.919304408268804</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.361726443787591</v>
+        <v>1.460946765176228</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.011836332623571</v>
+        <v>-4.670192118258123</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.3801437364442046</v>
+        <v>-0.2092191904845655</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.994375953715765</v>
+        <v>4.064233227686391</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.721452261482039</v>
+        <v>-1.792173811747711</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.04926640214136525</v>
+        <v>-0.09309056552667364</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>9.596801011195714</v>
+        <v>9.812288831200259</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.262388856831816</v>
+        <v>1.099660971005141</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>8.565621173326832</v>
+        <v>8.941829728408177</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.853445184406169</v>
+        <v>5.942710265128608</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.9415638861850981</v>
+        <v>-0.8302897405833392</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.889948897316681</v>
+        <v>3.659367063283382</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.4998715643337366</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.2914495960793441</v>
+        <v>-0.2914495960793442</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.6635095942330466</v>
@@ -2267,7 +2267,7 @@
         <v>-0.312567534755418</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2017431343579993</v>
+        <v>0.2017431343579991</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2574275614652902</v>
+        <v>-0.228742712045153</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6844800578106083</v>
+        <v>-0.6782412940805908</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5119545558879746</v>
+        <v>-0.5120404365880955</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2727689815742192</v>
+        <v>0.2362904586737175</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4076604041589096</v>
+        <v>-0.4120019803240539</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2563607197852759</v>
+        <v>0.2438731324793477</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1370313102741269</v>
+        <v>0.1466458083800091</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4835694991560743</v>
+        <v>-0.4668980918647977</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.03843625452539132</v>
+        <v>-0.02128104637425177</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5641352845068246</v>
+        <v>0.5947415746790347</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2330224234255361</v>
+        <v>-0.252520847312842</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.01395352440343181</v>
+        <v>0.0009036674804329384</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.172441546673956</v>
+        <v>1.146777700766202</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1636318690463476</v>
+        <v>0.1382187518645603</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.072421282939632</v>
+        <v>1.135202370970386</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7496392486597139</v>
+        <v>0.7642915542600068</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1137845833917269</v>
+        <v>-0.1026586830387462</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4932571116627711</v>
+        <v>0.4656657913030504</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>0.01794053191997089</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.01581445781020999</v>
+        <v>-0.01581445781021068</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>5.224171082039894</v>
@@ -2367,7 +2367,7 @@
         <v>2.776391386054115</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2.31537855631193</v>
+        <v>2.315378556311928</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.174920955467776</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.1000918546216931</v>
+        <v>-0.1750323377329534</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.108722569422364</v>
+        <v>-1.291238493890622</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.20366311357387</v>
+        <v>-1.193163467349736</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.762999143686437</v>
+        <v>3.700529820749987</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.399886616201855</v>
+        <v>1.126699206997395</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.068708432374665</v>
+        <v>1.025821303132139</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.171556381864145</v>
+        <v>2.085845876718535</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.4222370339998683</v>
+        <v>0.5366472617229238</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.1368240676145373</v>
+        <v>0.2085334812569104</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.359452178613634</v>
+        <v>2.248271500678385</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.203758422432223</v>
+        <v>1.117218860154628</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.204885497251654</v>
+        <v>1.138081041298256</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.870306275374915</v>
+        <v>6.788799855793082</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.294826561744773</v>
+        <v>4.29346756767308</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.660120558127172</v>
+        <v>3.612999999340269</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.151223744304733</v>
+        <v>4.246110396112194</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.423751283840835</v>
+        <v>2.483843872050832</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.032570091749785</v>
+        <v>2.045678631136394</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.002965263220053842</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.002613859516478874</v>
+        <v>-0.002613859516478989</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.5546619476703221</v>
@@ -2472,7 +2472,7 @@
         <v>0.2947756935024742</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2458289285458485</v>
+        <v>0.2458289285458484</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.4091170817075764</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.0169579547462476</v>
+        <v>-0.02862911238086396</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1695863356988712</v>
+        <v>-0.193374122053747</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1825893399443828</v>
+        <v>-0.1840951128077041</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.3675160996456364</v>
+        <v>0.3682735578569831</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1341282220250279</v>
+        <v>0.1145193273469498</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1073007423430231</v>
+        <v>0.09829735403809312</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2617330139186293</v>
+        <v>0.2471710754177429</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.0525066576733896</v>
+        <v>0.06372423789242779</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.01635023893075849</v>
+        <v>0.02218578891993569</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4193610306790301</v>
+        <v>0.4103556061538978</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.221868347763965</v>
+        <v>0.2066382262083314</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2211347943340626</v>
+        <v>0.2046113829279221</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7788814124400838</v>
+        <v>0.7796765773147217</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4930824225010416</v>
+        <v>0.4838857768573703</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4213782850214596</v>
+        <v>0.4128544753524315</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5650359739547622</v>
+        <v>0.5844490030023083</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3333288937446443</v>
+        <v>0.3425275717952183</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.27532287260958</v>
+        <v>0.2775085178432452</v>
       </c>
     </row>
     <row r="58">
